--- a/entradas.xlsx
+++ b/entradas.xlsx
@@ -493,14 +493,5 @@
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <tableParts count="0"/>
 </worksheet>
 </file>